--- a/Datasett/Skjenkesteder.xlsx
+++ b/Datasett/Skjenkesteder.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marte\Documents\uib\6. semester\INFO216 Advanced Modelling\Project_Y\Datasett\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malin\Documents\Project_Y\Datasett\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E6A2E4-0EDE-4478-8A26-8C613D43026B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="skjenkesteder-i-gjesdal-kommune" sheetId="1" r:id="rId1"/>
@@ -27,12 +28,6 @@
     <t>oest</t>
   </si>
   <si>
-    <t>longitude</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
     <t>navn</t>
   </si>
   <si>
@@ -265,12 +260,18 @@
   </si>
   <si>
     <t>Ole Nielsens vei</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Latitude</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1104,19 +1105,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1124,71 +1125,71 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>4335</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -1197,27 +1198,27 @@
         <v>4330</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -1226,27 +1227,27 @@
         <v>4330</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G5">
         <v>63</v>
@@ -1255,27 +1256,27 @@
         <v>4335</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G6">
         <v>16</v>
@@ -1284,27 +1285,27 @@
         <v>4330</v>
       </c>
       <c r="I6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G7">
         <v>1150</v>
@@ -1313,27 +1314,27 @@
         <v>4333</v>
       </c>
       <c r="I7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1342,27 +1343,27 @@
         <v>4330</v>
       </c>
       <c r="I8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
         <v>41</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>42</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>43</v>
       </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G9">
         <v>21</v>
@@ -1371,27 +1372,27 @@
         <v>4330</v>
       </c>
       <c r="I9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
         <v>46</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>47</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>48</v>
       </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1400,27 +1401,27 @@
         <v>4330</v>
       </c>
       <c r="I10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
         <v>51</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>52</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>53</v>
       </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>55</v>
-      </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G11">
         <v>20</v>
@@ -1429,27 +1430,27 @@
         <v>4330</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
         <v>51</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>52</v>
       </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>54</v>
       </c>
-      <c r="E12" t="s">
-        <v>56</v>
-      </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G12">
         <v>20</v>
@@ -1458,27 +1459,27 @@
         <v>4330</v>
       </c>
       <c r="I12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
         <v>57</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>58</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>59</v>
       </c>
-      <c r="D13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" t="s">
-        <v>61</v>
-      </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G13">
         <v>186</v>
@@ -1487,27 +1488,27 @@
         <v>4333</v>
       </c>
       <c r="I13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
         <v>62</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>63</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>64</v>
       </c>
-      <c r="D14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" t="s">
-        <v>66</v>
-      </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G14">
         <v>13</v>
@@ -1516,7 +1517,7 @@
         <v>4330</v>
       </c>
       <c r="I14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Datasett/Skjenkesteder.xlsx
+++ b/Datasett/Skjenkesteder.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malin\Documents\Project_Y\Datasett\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malin\Documents\Project_Y\Datasett\Nye datasett\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E6A2E4-0EDE-4478-8A26-8C613D43026B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E102932-E592-4908-A0FC-228832753596}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1109,11 +1109,12 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="5" max="5" width="35.5703125" customWidth="1"/>
     <col min="6" max="6" width="42" customWidth="1"/>
   </cols>
   <sheetData>
